--- a/Test protocol/Sprint_3/DE/System Test protocol_Braille DP2_Sprint 3_DE.xlsx
+++ b/Test protocol/Sprint_3/DE/System Test protocol_Braille DP2_Sprint 3_DE.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis Viro\Documents\GitHub\testing\Test protocol\Sprint_3\DE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14232" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name=" Background and Preparation" sheetId="1" r:id="rId1"/>
@@ -860,12 +865,12 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="20 % - Akzent3" xfId="4" builtinId="38"/>
+    <cellStyle name="20% - Accent3" xfId="4" builtinId="38"/>
+    <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
+    <cellStyle name="Heading 4" xfId="3" builtinId="19"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15"/>
-    <cellStyle name="Überschrift 2" xfId="2" builtinId="17"/>
-    <cellStyle name="Überschrift 4" xfId="3" builtinId="19"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Title" xfId="1" builtinId="15"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1140,7 +1145,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1155,7 +1160,7 @@
       <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="101" customWidth="1"/>
   </cols>
@@ -1165,7 +1170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="39"/>
     </row>
     <row r="3" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -1173,7 +1178,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="43.9" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
         <v>36</v>
       </c>
@@ -1183,35 +1188,35 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="36" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="28"/>
     </row>
-    <row r="11" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="34"/>
     </row>
     <row r="14" spans="1:1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
@@ -1219,25 +1224,25 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A15" s="36" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="27"/>
     </row>
-    <row r="18" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="36" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="36" t="s">
         <v>116</v>
       </c>
@@ -1252,7 +1257,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="31"/>
     </row>
   </sheetData>
@@ -1275,16 +1280,16 @@
       <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="33" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="19" customFormat="1" ht="23.45" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="19" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
@@ -1293,13 +1298,13 @@
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
     </row>
-    <row r="2" spans="1:5" s="23" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="21"/>
       <c r="C2" s="20"/>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
     </row>
-    <row r="3" spans="1:5" s="23" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
@@ -1314,7 +1319,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="23" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>11</v>
       </c>
@@ -1329,7 +1334,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="26" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -1338,7 +1343,7 @@
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
     </row>
-    <row r="6" spans="1:5" s="39" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="37"/>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
@@ -1352,7 +1357,7 @@
       <c r="B7" s="12"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:5" s="7" customFormat="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1361,7 +1366,7 @@
       </c>
       <c r="C8" s="9"/>
     </row>
-    <row r="9" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -1370,7 +1375,7 @@
       </c>
       <c r="C9" s="9"/>
     </row>
-    <row r="10" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>2</v>
       </c>
@@ -1379,7 +1384,7 @@
       </c>
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>3</v>
       </c>
@@ -1388,7 +1393,7 @@
       </c>
       <c r="C11" s="9"/>
     </row>
-    <row r="12" spans="1:5" s="7" customFormat="1" ht="244.9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" s="7" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -1399,14 +1404,14 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="9"/>
     </row>
-    <row r="14" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>6</v>
       </c>
@@ -1415,14 +1420,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15"/>
     </row>
-    <row r="16" spans="1:5" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
     </row>
@@ -1433,7 +1438,7 @@
       <c r="B17" s="12"/>
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="1:3" s="7" customFormat="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>0</v>
       </c>
@@ -1442,7 +1447,7 @@
       </c>
       <c r="C18" s="9"/>
     </row>
-    <row r="19" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>1</v>
       </c>
@@ -1451,7 +1456,7 @@
       </c>
       <c r="C19" s="9"/>
     </row>
-    <row r="20" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>2</v>
       </c>
@@ -1460,7 +1465,7 @@
       </c>
       <c r="C20" s="9"/>
     </row>
-    <row r="21" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -1469,7 +1474,7 @@
       </c>
       <c r="C21" s="9"/>
     </row>
-    <row r="22" spans="1:3" s="7" customFormat="1" ht="187.15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" s="7" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>4</v>
       </c>
@@ -1489,21 +1494,21 @@
       </c>
       <c r="C23" s="9"/>
     </row>
-    <row r="24" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="9"/>
     </row>
-    <row r="25" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="9"/>
     </row>
-    <row r="26" spans="1:3" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
     </row>
@@ -1514,7 +1519,7 @@
       <c r="B27" s="12"/>
       <c r="C27" s="8"/>
     </row>
-    <row r="28" spans="1:3" s="7" customFormat="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>0</v>
       </c>
@@ -1523,7 +1528,7 @@
       </c>
       <c r="C28" s="9"/>
     </row>
-    <row r="29" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>1</v>
       </c>
@@ -1532,7 +1537,7 @@
       </c>
       <c r="C29" s="9"/>
     </row>
-    <row r="30" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>2</v>
       </c>
@@ -1541,7 +1546,7 @@
       </c>
       <c r="C30" s="9"/>
     </row>
-    <row r="31" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>3</v>
       </c>
@@ -1561,7 +1566,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -1570,14 +1575,14 @@
       </c>
       <c r="C33" s="9"/>
     </row>
-    <row r="34" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="9"/>
     </row>
-    <row r="35" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>7</v>
       </c>
@@ -1603,16 +1608,16 @@
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="40.5546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="33" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="19" customFormat="1" ht="23.45" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="19" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
@@ -1621,13 +1626,13 @@
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
     </row>
-    <row r="2" spans="1:5" s="23" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="21"/>
       <c r="C2" s="20"/>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
     </row>
-    <row r="3" spans="1:5" s="23" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
@@ -1642,7 +1647,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="23" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>11</v>
       </c>
@@ -1657,7 +1662,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="26" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -1670,7 +1675,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="39" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="37"/>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
@@ -1684,7 +1689,7 @@
       <c r="B7" s="46"/>
       <c r="C7" s="47"/>
     </row>
-    <row r="8" spans="1:5" s="7" customFormat="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1693,7 +1698,7 @@
       </c>
       <c r="C8" s="9"/>
     </row>
-    <row r="9" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -1702,7 +1707,7 @@
       </c>
       <c r="C9" s="9"/>
     </row>
-    <row r="10" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>2</v>
       </c>
@@ -1711,7 +1716,7 @@
       </c>
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>3</v>
       </c>
@@ -1720,7 +1725,7 @@
       </c>
       <c r="C11" s="9"/>
     </row>
-    <row r="12" spans="1:5" s="7" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" s="7" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -1731,7 +1736,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>5</v>
       </c>
@@ -1742,7 +1747,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
         <v>77</v>
       </c>
@@ -1750,7 +1755,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="11" t="s">
         <v>78</v>
       </c>
@@ -1758,7 +1763,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="11" t="s">
         <v>80</v>
       </c>
@@ -1766,7 +1771,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
         <v>80</v>
       </c>
@@ -1774,7 +1779,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
         <v>65</v>
       </c>
@@ -1782,7 +1787,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>6</v>
       </c>
@@ -1791,14 +1796,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20"/>
     </row>
-    <row r="21" spans="1:3" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="31"/>
       <c r="C21" s="31"/>
     </row>
@@ -1809,7 +1814,7 @@
       <c r="B22" s="12"/>
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="1:3" s="7" customFormat="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>0</v>
       </c>
@@ -1818,7 +1823,7 @@
       </c>
       <c r="C23" s="9"/>
     </row>
-    <row r="24" spans="1:3" s="7" customFormat="1" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>1</v>
       </c>
@@ -1827,7 +1832,7 @@
       </c>
       <c r="C24" s="43"/>
     </row>
-    <row r="25" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>2</v>
       </c>
@@ -1836,7 +1841,7 @@
       </c>
       <c r="C25" s="9"/>
     </row>
-    <row r="26" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>3</v>
       </c>
@@ -1845,7 +1850,7 @@
       </c>
       <c r="C26" s="9"/>
     </row>
-    <row r="27" spans="1:3" s="7" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" s="7" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>4</v>
       </c>
@@ -1856,7 +1861,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>5</v>
       </c>
@@ -1867,35 +1872,35 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
     </row>
-    <row r="30" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="9"/>
     </row>
-    <row r="31" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="9"/>
     </row>
-    <row r="32" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
     </row>
-    <row r="33" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="8"/>
     </row>
-    <row r="34" spans="1:3" s="7" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>0</v>
       </c>
@@ -1904,7 +1909,7 @@
       </c>
       <c r="C34" s="9"/>
     </row>
-    <row r="35" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>1</v>
       </c>
@@ -1913,7 +1918,7 @@
       </c>
       <c r="C35" s="9"/>
     </row>
-    <row r="36" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>2</v>
       </c>
@@ -1922,7 +1927,7 @@
       </c>
       <c r="C36" s="9"/>
     </row>
-    <row r="37" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>3</v>
       </c>
@@ -1931,7 +1936,7 @@
       </c>
       <c r="C37" s="9"/>
     </row>
-    <row r="38" spans="1:3" s="7" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" s="7" customFormat="1" ht="216" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>4</v>
       </c>
@@ -1942,7 +1947,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>5</v>
       </c>
@@ -1951,7 +1956,7 @@
       </c>
       <c r="C39" s="44"/>
     </row>
-    <row r="40" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="11" t="s">
         <v>77</v>
       </c>
@@ -1959,7 +1964,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B41" s="11" t="s">
         <v>84</v>
       </c>
@@ -1967,7 +1972,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B42" s="11" t="s">
         <v>85</v>
       </c>
@@ -1975,32 +1980,32 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="9"/>
     </row>
-    <row r="44" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="9"/>
     </row>
-    <row r="45" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B45" s="32"/>
       <c r="C45" s="32"/>
     </row>
-    <row r="46" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B46" s="12"/>
       <c r="C46" s="8"/>
     </row>
-    <row r="47" spans="1:3" s="7" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>0</v>
       </c>
@@ -2009,7 +2014,7 @@
       </c>
       <c r="C47" s="9"/>
     </row>
-    <row r="48" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>1</v>
       </c>
@@ -2018,7 +2023,7 @@
       </c>
       <c r="C48" s="9"/>
     </row>
-    <row r="49" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>2</v>
       </c>
@@ -2027,7 +2032,7 @@
       </c>
       <c r="C49" s="9"/>
     </row>
-    <row r="50" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>3</v>
       </c>
@@ -2036,7 +2041,7 @@
       </c>
       <c r="C50" s="9"/>
     </row>
-    <row r="51" spans="1:3" s="7" customFormat="1" ht="375" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" s="7" customFormat="1" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>4</v>
       </c>
@@ -2047,7 +2052,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>5</v>
       </c>
@@ -2058,7 +2063,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B53" s="11" t="s">
         <v>104</v>
       </c>
@@ -2066,7 +2071,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B54" s="11" t="s">
         <v>103</v>
       </c>
@@ -2074,7 +2079,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B55" s="11" t="s">
         <v>84</v>
       </c>
@@ -2082,7 +2087,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B56" s="11" t="s">
         <v>85</v>
       </c>
@@ -2090,7 +2095,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B57" s="11" t="s">
         <v>65</v>
       </c>
@@ -2098,32 +2103,32 @@
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B58" s="11"/>
       <c r="C58" s="9"/>
     </row>
-    <row r="59" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B59" s="11"/>
       <c r="C59" s="9"/>
     </row>
-    <row r="60" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B60" s="32"/>
       <c r="C60" s="32"/>
     </row>
-    <row r="61" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B61" s="12"/>
       <c r="C61" s="8"/>
     </row>
-    <row r="62" spans="1:3" s="7" customFormat="1" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" s="7" customFormat="1" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>0</v>
       </c>
@@ -2132,7 +2137,7 @@
       </c>
       <c r="C62" s="9"/>
     </row>
-    <row r="63" spans="1:3" s="7" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" s="7" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>1</v>
       </c>
@@ -2141,7 +2146,7 @@
       </c>
       <c r="C63" s="43"/>
     </row>
-    <row r="64" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
         <v>2</v>
       </c>
@@ -2150,7 +2155,7 @@
       </c>
       <c r="C64" s="9"/>
     </row>
-    <row r="65" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>3</v>
       </c>
@@ -2159,7 +2164,7 @@
       </c>
       <c r="C65" s="9"/>
     </row>
-    <row r="66" spans="1:3" s="7" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" s="7" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>4</v>
       </c>
@@ -2170,7 +2175,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>5</v>
       </c>
@@ -2181,7 +2186,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B68" s="60" t="s">
         <v>65</v>
       </c>
@@ -2189,32 +2194,32 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B69" s="11"/>
       <c r="C69" s="9"/>
     </row>
-    <row r="70" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B70" s="11"/>
       <c r="C70" s="9"/>
     </row>
-    <row r="71" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B71" s="32"/>
       <c r="C71" s="32"/>
     </row>
-    <row r="72" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B72" s="12"/>
       <c r="C72" s="8"/>
     </row>
-    <row r="73" spans="1:3" s="7" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>0</v>
       </c>
@@ -2223,7 +2228,7 @@
       </c>
       <c r="C73" s="9"/>
     </row>
-    <row r="74" spans="1:3" s="7" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" s="7" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>1</v>
       </c>
@@ -2232,7 +2237,7 @@
       </c>
       <c r="C74" s="43"/>
     </row>
-    <row r="75" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
         <v>2</v>
       </c>
@@ -2241,7 +2246,7 @@
       </c>
       <c r="C75" s="9"/>
     </row>
-    <row r="76" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
         <v>3</v>
       </c>
@@ -2250,7 +2255,7 @@
       </c>
       <c r="C76" s="9"/>
     </row>
-    <row r="77" spans="1:3" s="7" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" s="7" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>4</v>
       </c>
@@ -2261,7 +2266,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="78" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>5</v>
       </c>
@@ -2272,7 +2277,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="79" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6"/>
       <c r="B79" t="s">
         <v>87</v>
@@ -2281,32 +2286,32 @@
         <v>91</v>
       </c>
     </row>
-    <row r="80" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B80" s="11"/>
       <c r="C80" s="9"/>
     </row>
-    <row r="81" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B81" s="11"/>
       <c r="C81" s="9"/>
     </row>
-    <row r="82" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B82" s="32"/>
       <c r="C82" s="32"/>
     </row>
-    <row r="83" spans="1:5" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="5" t="s">
         <v>73</v>
       </c>
       <c r="B83" s="12"/>
       <c r="C83" s="8"/>
     </row>
-    <row r="84" spans="1:5" s="7" customFormat="1" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" s="7" customFormat="1" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>0</v>
       </c>
@@ -2315,7 +2320,7 @@
       </c>
       <c r="C84" s="9"/>
     </row>
-    <row r="85" spans="1:5" s="7" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" s="7" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>1</v>
       </c>
@@ -2324,7 +2329,7 @@
       </c>
       <c r="C85" s="43"/>
     </row>
-    <row r="86" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
         <v>2</v>
       </c>
@@ -2333,7 +2338,7 @@
       </c>
       <c r="C86" s="9"/>
     </row>
-    <row r="87" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
         <v>3</v>
       </c>
@@ -2342,7 +2347,7 @@
       </c>
       <c r="C87" s="9"/>
     </row>
-    <row r="88" spans="1:5" s="7" customFormat="1" ht="270" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" s="7" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>4</v>
       </c>
@@ -2354,7 +2359,7 @@
       </c>
       <c r="E88" s="67"/>
     </row>
-    <row r="89" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>5</v>
       </c>
@@ -2365,7 +2370,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="90" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6"/>
       <c r="B90" s="14" t="s">
         <v>67</v>
@@ -2374,7 +2379,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="91" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6"/>
       <c r="B91" s="14" t="s">
         <v>77</v>
@@ -2383,61 +2388,61 @@
         <v>105</v>
       </c>
     </row>
-    <row r="92" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B92" s="11"/>
       <c r="C92" s="9"/>
     </row>
-    <row r="93" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B93" s="11"/>
       <c r="C93" s="9"/>
     </row>
-    <row r="94" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B94" s="32"/>
       <c r="C94" s="32"/>
     </row>
-    <row r="95" spans="1:5" s="51" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" s="51" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="B95" s="52"/>
       <c r="C95" s="53"/>
     </row>
-    <row r="96" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="54"/>
       <c r="B96" s="55"/>
       <c r="C96" s="56"/>
     </row>
-    <row r="97" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="54"/>
       <c r="B97" s="55"/>
       <c r="C97" s="58"/>
     </row>
-    <row r="98" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B98" s="11"/>
       <c r="C98" s="9"/>
     </row>
-    <row r="99" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B99" s="11"/>
       <c r="C99" s="9"/>
     </row>
-    <row r="100" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6"/>
       <c r="B100" s="14"/>
       <c r="C100" s="35"/>
     </row>
-    <row r="101" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="6"/>
       <c r="B101" s="28"/>
       <c r="C101" s="34"/>
     </row>
-    <row r="102" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B102" s="11"/>
       <c r="C102" s="9"/>
     </row>
-    <row r="103" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B103" s="11"/>
       <c r="C103" s="9"/>
     </row>
@@ -2475,20 +2480,20 @@
   <dimension ref="A1:E115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <pane ySplit="6" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="40.5546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="33" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="19" customFormat="1" ht="23.45" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="19" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
@@ -2497,13 +2502,13 @@
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
     </row>
-    <row r="2" spans="1:5" s="23" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="21"/>
       <c r="C2" s="20"/>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
     </row>
-    <row r="3" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
@@ -2520,7 +2525,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="23" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>11</v>
       </c>
@@ -2537,7 +2542,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="26" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
@@ -2552,7 +2557,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="39" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="37"/>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
@@ -2566,7 +2571,7 @@
       <c r="B7" s="46"/>
       <c r="C7" s="47"/>
     </row>
-    <row r="8" spans="1:5" s="7" customFormat="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2575,7 +2580,7 @@
       </c>
       <c r="C8" s="9"/>
     </row>
-    <row r="9" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -2584,7 +2589,7 @@
       </c>
       <c r="C9" s="9"/>
     </row>
-    <row r="10" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>2</v>
       </c>
@@ -2593,7 +2598,7 @@
       </c>
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>3</v>
       </c>
@@ -2602,7 +2607,7 @@
       </c>
       <c r="C11" s="9"/>
     </row>
-    <row r="12" spans="1:5" s="7" customFormat="1" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" s="7" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -2613,7 +2618,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>5</v>
       </c>
@@ -2624,7 +2629,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
         <v>77</v>
       </c>
@@ -2632,7 +2637,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="11" t="s">
         <v>78</v>
       </c>
@@ -2640,7 +2645,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="11" t="s">
         <v>80</v>
       </c>
@@ -2648,7 +2653,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
         <v>80</v>
       </c>
@@ -2656,7 +2661,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
         <v>65</v>
       </c>
@@ -2664,7 +2669,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>6</v>
       </c>
@@ -2673,7 +2678,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>7</v>
       </c>
@@ -2682,7 +2687,7 @@
       </c>
       <c r="C20"/>
     </row>
-    <row r="21" spans="1:3" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="31"/>
       <c r="C21" s="31"/>
     </row>
@@ -2693,7 +2698,7 @@
       <c r="B22" s="12"/>
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="1:3" s="7" customFormat="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>0</v>
       </c>
@@ -2702,7 +2707,7 @@
       </c>
       <c r="C23" s="9"/>
     </row>
-    <row r="24" spans="1:3" s="7" customFormat="1" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>1</v>
       </c>
@@ -2711,7 +2716,7 @@
       </c>
       <c r="C24" s="43"/>
     </row>
-    <row r="25" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>2</v>
       </c>
@@ -2720,7 +2725,7 @@
       </c>
       <c r="C25" s="9"/>
     </row>
-    <row r="26" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>3</v>
       </c>
@@ -2729,7 +2734,7 @@
       </c>
       <c r="C26" s="9"/>
     </row>
-    <row r="27" spans="1:3" s="7" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" s="7" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>4</v>
       </c>
@@ -2740,7 +2745,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>5</v>
       </c>
@@ -2751,17 +2756,17 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
     </row>
-    <row r="30" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="9"/>
     </row>
-    <row r="31" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>7</v>
       </c>
@@ -2770,18 +2775,18 @@
       </c>
       <c r="C31" s="9"/>
     </row>
-    <row r="32" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
     </row>
-    <row r="33" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="8"/>
     </row>
-    <row r="34" spans="1:3" s="7" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>0</v>
       </c>
@@ -2790,7 +2795,7 @@
       </c>
       <c r="C34" s="9"/>
     </row>
-    <row r="35" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>1</v>
       </c>
@@ -2799,7 +2804,7 @@
       </c>
       <c r="C35" s="9"/>
     </row>
-    <row r="36" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>2</v>
       </c>
@@ -2808,7 +2813,7 @@
       </c>
       <c r="C36" s="9"/>
     </row>
-    <row r="37" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>3</v>
       </c>
@@ -2817,7 +2822,7 @@
       </c>
       <c r="C37" s="9"/>
     </row>
-    <row r="38" spans="1:3" s="7" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" s="7" customFormat="1" ht="216" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>4</v>
       </c>
@@ -2828,7 +2833,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>5</v>
       </c>
@@ -2837,7 +2842,7 @@
       </c>
       <c r="C39" s="44"/>
     </row>
-    <row r="40" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="11" t="s">
         <v>77</v>
       </c>
@@ -2845,7 +2850,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B41" s="11" t="s">
         <v>84</v>
       </c>
@@ -2853,7 +2858,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B42" s="11" t="s">
         <v>85</v>
       </c>
@@ -2861,14 +2866,14 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="9"/>
     </row>
-    <row r="44" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>7</v>
       </c>
@@ -2877,18 +2882,18 @@
       </c>
       <c r="C44" s="9"/>
     </row>
-    <row r="45" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B45" s="32"/>
       <c r="C45" s="32"/>
     </row>
-    <row r="46" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B46" s="12"/>
       <c r="C46" s="8"/>
     </row>
-    <row r="47" spans="1:3" s="7" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>0</v>
       </c>
@@ -2897,7 +2902,7 @@
       </c>
       <c r="C47" s="9"/>
     </row>
-    <row r="48" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>1</v>
       </c>
@@ -2906,7 +2911,7 @@
       </c>
       <c r="C48" s="9"/>
     </row>
-    <row r="49" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>2</v>
       </c>
@@ -2915,7 +2920,7 @@
       </c>
       <c r="C49" s="9"/>
     </row>
-    <row r="50" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>3</v>
       </c>
@@ -2924,7 +2929,7 @@
       </c>
       <c r="C50" s="9"/>
     </row>
-    <row r="51" spans="1:3" s="7" customFormat="1" ht="375" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" s="7" customFormat="1" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>4</v>
       </c>
@@ -2935,7 +2940,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>5</v>
       </c>
@@ -2946,7 +2951,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B53" s="11" t="s">
         <v>104</v>
       </c>
@@ -2954,7 +2959,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B54" s="11" t="s">
         <v>103</v>
       </c>
@@ -2962,7 +2967,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B55" s="11" t="s">
         <v>84</v>
       </c>
@@ -2970,7 +2975,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B56" s="11" t="s">
         <v>85</v>
       </c>
@@ -2978,7 +2983,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B57" s="11" t="s">
         <v>65</v>
       </c>
@@ -2986,14 +2991,14 @@
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B58" s="11"/>
       <c r="C58" s="9"/>
     </row>
-    <row r="59" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>7</v>
       </c>
@@ -3002,18 +3007,18 @@
       </c>
       <c r="C59" s="9"/>
     </row>
-    <row r="60" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B60" s="32"/>
       <c r="C60" s="32"/>
     </row>
-    <row r="61" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B61" s="12"/>
       <c r="C61" s="8"/>
     </row>
-    <row r="62" spans="1:3" s="7" customFormat="1" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" s="7" customFormat="1" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>0</v>
       </c>
@@ -3022,7 +3027,7 @@
       </c>
       <c r="C62" s="9"/>
     </row>
-    <row r="63" spans="1:3" s="7" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" s="7" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>1</v>
       </c>
@@ -3031,7 +3036,7 @@
       </c>
       <c r="C63" s="43"/>
     </row>
-    <row r="64" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
         <v>2</v>
       </c>
@@ -3040,7 +3045,7 @@
       </c>
       <c r="C64" s="9"/>
     </row>
-    <row r="65" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>3</v>
       </c>
@@ -3049,7 +3054,7 @@
       </c>
       <c r="C65" s="9"/>
     </row>
-    <row r="66" spans="1:3" s="7" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" s="7" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>4</v>
       </c>
@@ -3060,7 +3065,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>5</v>
       </c>
@@ -3071,7 +3076,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B68" s="60" t="s">
         <v>65</v>
       </c>
@@ -3079,14 +3084,14 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B69" s="11"/>
       <c r="C69" s="9"/>
     </row>
-    <row r="70" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>7</v>
       </c>
@@ -3095,18 +3100,18 @@
       </c>
       <c r="C70" s="9"/>
     </row>
-    <row r="71" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B71" s="32"/>
       <c r="C71" s="32"/>
     </row>
-    <row r="72" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B72" s="12"/>
       <c r="C72" s="8"/>
     </row>
-    <row r="73" spans="1:3" s="7" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>0</v>
       </c>
@@ -3115,7 +3120,7 @@
       </c>
       <c r="C73" s="9"/>
     </row>
-    <row r="74" spans="1:3" s="7" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" s="7" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>1</v>
       </c>
@@ -3124,7 +3129,7 @@
       </c>
       <c r="C74" s="43"/>
     </row>
-    <row r="75" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
         <v>2</v>
       </c>
@@ -3133,7 +3138,7 @@
       </c>
       <c r="C75" s="9"/>
     </row>
-    <row r="76" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
         <v>3</v>
       </c>
@@ -3142,7 +3147,7 @@
       </c>
       <c r="C76" s="9"/>
     </row>
-    <row r="77" spans="1:3" s="7" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" s="7" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>4</v>
       </c>
@@ -3153,7 +3158,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="78" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>5</v>
       </c>
@@ -3164,7 +3169,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="79" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6"/>
       <c r="B79" t="s">
         <v>87</v>
@@ -3173,14 +3178,14 @@
         <v>91</v>
       </c>
     </row>
-    <row r="80" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B80" s="11"/>
       <c r="C80" s="9"/>
     </row>
-    <row r="81" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
         <v>7</v>
       </c>
@@ -3189,18 +3194,18 @@
       </c>
       <c r="C81" s="9"/>
     </row>
-    <row r="82" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B82" s="32"/>
       <c r="C82" s="32"/>
     </row>
-    <row r="83" spans="1:5" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="5" t="s">
         <v>73</v>
       </c>
       <c r="B83" s="12"/>
       <c r="C83" s="8"/>
     </row>
-    <row r="84" spans="1:5" s="7" customFormat="1" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" s="7" customFormat="1" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>0</v>
       </c>
@@ -3209,7 +3214,7 @@
       </c>
       <c r="C84" s="9"/>
     </row>
-    <row r="85" spans="1:5" s="7" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" s="7" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>1</v>
       </c>
@@ -3218,7 +3223,7 @@
       </c>
       <c r="C85" s="43"/>
     </row>
-    <row r="86" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
         <v>2</v>
       </c>
@@ -3227,7 +3232,7 @@
       </c>
       <c r="C86" s="9"/>
     </row>
-    <row r="87" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
         <v>3</v>
       </c>
@@ -3236,7 +3241,7 @@
       </c>
       <c r="C87" s="9"/>
     </row>
-    <row r="88" spans="1:5" s="7" customFormat="1" ht="270" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" s="7" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>4</v>
       </c>
@@ -3248,7 +3253,7 @@
       </c>
       <c r="E88" s="67"/>
     </row>
-    <row r="89" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>5</v>
       </c>
@@ -3259,7 +3264,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="90" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6"/>
       <c r="B90" s="14" t="s">
         <v>67</v>
@@ -3268,7 +3273,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="91" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6"/>
       <c r="B91" s="14" t="s">
         <v>77</v>
@@ -3277,14 +3282,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="92" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B92" s="11"/>
       <c r="C92" s="9"/>
     </row>
-    <row r="93" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
         <v>7</v>
       </c>
@@ -3293,18 +3298,18 @@
       </c>
       <c r="C93" s="9"/>
     </row>
-    <row r="94" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B94" s="32"/>
       <c r="C94" s="32"/>
     </row>
-    <row r="95" spans="1:5" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B95" s="12"/>
       <c r="C95" s="8"/>
     </row>
-    <row r="96" spans="1:5" s="7" customFormat="1" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" s="7" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>0</v>
       </c>
@@ -3313,7 +3318,7 @@
       </c>
       <c r="C96" s="9"/>
     </row>
-    <row r="97" spans="1:3" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>1</v>
       </c>
@@ -3322,7 +3327,7 @@
       </c>
       <c r="C97" s="43"/>
     </row>
-    <row r="98" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
         <v>2</v>
       </c>
@@ -3331,7 +3336,7 @@
       </c>
       <c r="C98" s="9"/>
     </row>
-    <row r="99" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
         <v>3</v>
       </c>
@@ -3340,7 +3345,7 @@
       </c>
       <c r="C99" s="9"/>
     </row>
-    <row r="100" spans="1:3" s="7" customFormat="1" ht="360" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" s="7" customFormat="1" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
         <v>4</v>
       </c>
@@ -3351,7 +3356,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="101" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
         <v>5</v>
       </c>
@@ -3360,28 +3365,28 @@
       </c>
       <c r="C101" s="34"/>
     </row>
-    <row r="102" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6"/>
       <c r="B102" t="s">
         <v>77</v>
       </c>
       <c r="C102" s="34"/>
     </row>
-    <row r="103" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6"/>
       <c r="B103" t="s">
         <v>78</v>
       </c>
       <c r="C103" s="34"/>
     </row>
-    <row r="104" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B104" s="11"/>
       <c r="C104" s="9"/>
     </row>
-    <row r="105" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
         <v>7</v>
       </c>
@@ -3390,47 +3395,47 @@
       </c>
       <c r="C105" s="9"/>
     </row>
-    <row r="106" spans="1:3" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" s="49" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B106" s="50"/>
       <c r="C106" s="50"/>
     </row>
-    <row r="107" spans="1:3" s="51" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" s="51" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="B107" s="52"/>
       <c r="C107" s="53"/>
     </row>
-    <row r="108" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="54"/>
       <c r="B108" s="55"/>
       <c r="C108" s="56"/>
     </row>
-    <row r="109" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="54"/>
       <c r="B109" s="55"/>
       <c r="C109" s="58"/>
     </row>
-    <row r="110" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B110" s="11"/>
       <c r="C110" s="9"/>
     </row>
-    <row r="111" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B111" s="11"/>
       <c r="C111" s="9"/>
     </row>
-    <row r="112" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6"/>
       <c r="B112" s="14"/>
       <c r="C112" s="35"/>
     </row>
-    <row r="113" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="6"/>
       <c r="B113" s="28"/>
       <c r="C113" s="34"/>
     </row>
-    <row r="114" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B114" s="11"/>
       <c r="C114" s="9"/>
     </row>
-    <row r="115" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B115" s="11"/>
       <c r="C115" s="9"/>
     </row>
